--- a/Phasenplan_Bachelorprojektüberarbeitet.xlsx
+++ b/Phasenplan_Bachelorprojektüberarbeitet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\HAW\Bachelorprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDA3398-A8F0-424E-AF66-7A84D4879E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F292C62-AFC1-4C06-95D6-E2E3FA53996E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t>Steuerung &amp; Auswertung (Sensorik) (A4)</t>
   </si>
   <si>
-    <t>Dokumentation anpassen (A7)</t>
-  </si>
-  <si>
     <t>Tests definieren &amp; durchführen</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
   </si>
   <si>
     <t>Laufender Anforderungsabgleich (A6)</t>
+  </si>
+  <si>
+    <t>Dokumentation anpassen (A6)</t>
   </si>
 </sst>
 </file>
@@ -2661,7 +2661,7 @@
   <dimension ref="A1:EP31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AC28" sqref="AC28"/>
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5"/>
@@ -3681,7 +3681,7 @@
         <v>23</v>
       </c>
       <c r="CI11" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="CJ11" s="28"/>
       <c r="CK11" s="28"/>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="15" spans="1:146" ht="13.9">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="14"/>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="16" spans="1:146" ht="13.9">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="2"/>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="17" spans="1:142" ht="13.9">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="2"/>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="18" spans="1:142" ht="13.9">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="2"/>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="19" spans="1:142" ht="13.9">
       <c r="A19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="2"/>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="20" spans="1:142">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="2"/>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="21" spans="1:142">
       <c r="A21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="2"/>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="22" spans="1:142" ht="13.5" customHeight="1">
       <c r="A22" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -5050,7 +5050,7 @@
       <c r="CX22" s="16"/>
       <c r="CY22" s="16"/>
       <c r="CZ22" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="DA22" s="16"/>
       <c r="DB22" s="16"/>
@@ -5093,13 +5093,13 @@
     </row>
     <row r="23" spans="1:142" ht="18.75">
       <c r="A23" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="D23" s="24" t="s">
         <v>46</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>47</v>
       </c>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
@@ -5111,7 +5111,7 @@
     <row r="25" spans="1:142">
       <c r="B25" s="26"/>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
@@ -5121,7 +5121,7 @@
     </row>
     <row r="27" spans="1:142">
       <c r="C27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y27" s="7"/>
     </row>
@@ -5130,13 +5130,13 @@
     </row>
     <row r="29" spans="1:142" ht="25.15">
       <c r="C29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y29" s="25"/>
     </row>
     <row r="31" spans="1:142">
       <c r="C31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
